--- a/papers_processed/Paper30_data.xlsx
+++ b/papers_processed/Paper30_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\extracted data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF6ED0A-FBFE-4C3B-B7DF-57BDC285BDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F29DB-9800-46EB-9AE0-81B0DF9DA6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7094EDA7-1B13-444B-B70D-6764AED33FBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7094EDA7-1B13-444B-B70D-6764AED33FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,6 @@
     <t>doi</t>
   </si>
   <si>
-    <t>selection_type</t>
-  </si>
-  <si>
-    <t>selection_value</t>
-  </si>
-  <si>
-    <t>farming_practice_used</t>
-  </si>
-  <si>
     <t>farming_practice_compared</t>
   </si>
   <si>
@@ -87,12 +78,6 @@
     <t>1,6</t>
   </si>
   <si>
-    <t>Coarse (Sandy)</t>
-  </si>
-  <si>
-    <t>Fine (Clay)</t>
-  </si>
-  <si>
     <t>Soil Organic Carbon</t>
   </si>
   <si>
@@ -109,6 +94,21 @@
   </si>
   <si>
     <t>&lt;1.0% SOC</t>
+  </si>
+  <si>
+    <t>farming practice</t>
+  </si>
+  <si>
+    <t>selection type</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>sandy</t>
+  </si>
+  <si>
+    <t>clay</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -542,60 +542,60 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" s="7">
         <v>0.09</v>
@@ -604,36 +604,36 @@
         <v>6</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H4" s="7">
         <v>0.12</v>
@@ -642,36 +642,36 @@
         <v>6</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H5" s="10">
         <v>1.4999999999999999E-2</v>
@@ -680,36 +680,36 @@
         <v>6</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H6" s="10">
         <v>0.12</v>
@@ -718,36 +718,36 @@
         <v>6</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H7" s="4">
         <v>7.4999999999999997E-2</v>
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">

--- a/papers_processed/Paper30_data.xlsx
+++ b/papers_processed/Paper30_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F29DB-9800-46EB-9AE0-81B0DF9DA6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F912A1B8-7A13-4CB8-B4B9-C26517DE7A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7094EDA7-1B13-444B-B70D-6764AED33FBC}"/>
+    <workbookView xWindow="32310" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{7094EDA7-1B13-444B-B70D-6764AED33FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>doi</t>
   </si>
@@ -36,9 +36,6 @@
     <t>results_detailed</t>
   </si>
   <si>
-    <t>results_actual_percentage</t>
-  </si>
-  <si>
     <t>crop_type</t>
   </si>
   <si>
@@ -78,30 +75,15 @@
     <t>1,6</t>
   </si>
   <si>
-    <t>Soil Organic Carbon</t>
-  </si>
-  <si>
     <t>&lt;5.5</t>
   </si>
   <si>
     <t>&gt;7.0</t>
   </si>
   <si>
-    <t>soil type</t>
-  </si>
-  <si>
     <t>soil ph</t>
   </si>
   <si>
-    <t>&lt;1.0% SOC</t>
-  </si>
-  <si>
-    <t>farming practice</t>
-  </si>
-  <si>
-    <t>selection type</t>
-  </si>
-  <si>
     <t>selection</t>
   </si>
   <si>
@@ -109,6 +91,27 @@
   </si>
   <si>
     <t>clay</t>
+  </si>
+  <si>
+    <t>results_actual</t>
+  </si>
+  <si>
+    <t>farming_practice</t>
+  </si>
+  <si>
+    <t>selection_type</t>
+  </si>
+  <si>
+    <t>"+12"</t>
+  </si>
+  <si>
+    <t>"+1.5"</t>
+  </si>
+  <si>
+    <t>"+9"</t>
+  </si>
+  <si>
+    <t>soil_type</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -171,7 +174,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -512,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9C872B-2184-7B43-8E1F-B1D656C0747A}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,235 +537,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="I3" s="4">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="H4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="I3" s="5">
-        <v>6</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="L5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="I4" s="5">
-        <v>6</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I5" s="8">
-        <v>6</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="I6" s="8">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -811,13 +800,13 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
@@ -825,13 +814,13 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
@@ -853,13 +842,13 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
@@ -867,13 +856,13 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
@@ -891,34 +880,6 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
